--- a/Accounting_App/Reports/Report_R002.xlsx
+++ b/Accounting_App/Reports/Report_R002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Lin\Desktop\可愛團契記帳軟體\Accounting_App\Accounting_App\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Project\Accounting_App\Accounting_App\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,9 +184,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -217,6 +214,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,57 +447,57 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -500,10 +506,10 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
